--- a/需求/前端开发任务计划表 V1.0 20180515.xlsx
+++ b/需求/前端开发任务计划表 V1.0 20180515.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Web端" sheetId="1" r:id="rId1"/>
     <sheet name="App端-iOS" sheetId="2" r:id="rId2"/>
     <sheet name="App端-Android" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="78">
   <si>
     <t>模块</t>
   </si>
@@ -132,138 +132,135 @@
     <t>住户活动管理</t>
   </si>
   <si>
+    <t>住户活动记录</t>
+  </si>
+  <si>
+    <t>车辆管理</t>
+  </si>
+  <si>
+    <t>车辆登记</t>
+  </si>
+  <si>
+    <t>车辆进出记录</t>
+  </si>
+  <si>
+    <t>车辆缴费管理</t>
+  </si>
+  <si>
+    <t>车辆缴费H5</t>
+  </si>
+  <si>
+    <t>线上物业</t>
+  </si>
+  <si>
+    <t>物业信息-UI</t>
+  </si>
+  <si>
+    <t>董志伟</t>
+  </si>
+  <si>
+    <t>物业服务-UI</t>
+  </si>
+  <si>
+    <t>物业信息-调试</t>
+  </si>
+  <si>
+    <t>物业服务-调试</t>
+  </si>
+  <si>
+    <t>缴费服务-调试</t>
+  </si>
+  <si>
+    <t>物业助手</t>
+  </si>
+  <si>
+    <t>工单中心-UI</t>
+  </si>
+  <si>
+    <t>工单中心-调试</t>
+  </si>
+  <si>
+    <t>物业团队-UI</t>
+  </si>
+  <si>
+    <t>物业团队-调试</t>
+  </si>
+  <si>
+    <t>我的客户-UI</t>
+  </si>
+  <si>
+    <t>我的客户-调试</t>
+  </si>
+  <si>
+    <t>智能小区</t>
+  </si>
+  <si>
+    <t>门禁管理-UI</t>
+  </si>
+  <si>
+    <t>门禁管理-调试1</t>
+  </si>
+  <si>
+    <t>门禁管理-调试2</t>
+  </si>
+  <si>
+    <t>我的访客-UI</t>
+  </si>
+  <si>
+    <t>我的访客-调试</t>
+  </si>
+  <si>
+    <t>对讲管理-UI</t>
+  </si>
+  <si>
+    <t>对讲管理-调试</t>
+  </si>
+  <si>
+    <t>安防监控-UI</t>
+  </si>
+  <si>
+    <t>安防监控-调试</t>
+  </si>
+  <si>
+    <t>警情监督-UI</t>
+  </si>
+  <si>
+    <t>警情监督-调试</t>
+  </si>
+  <si>
+    <t>车位管理-UI</t>
+  </si>
+  <si>
+    <t>车位管理-调试</t>
+  </si>
+  <si>
+    <t>我家的车-UI</t>
+  </si>
+  <si>
+    <t>我家的车-调试</t>
+  </si>
+  <si>
+    <t>电梯联动-UI</t>
+  </si>
+  <si>
+    <t>电梯联动-调试</t>
+  </si>
+  <si>
+    <t>陈嘉伟</t>
+  </si>
+  <si>
     <t>住户活动圈</t>
-  </si>
-  <si>
-    <t>住户活动记录</t>
-  </si>
-  <si>
-    <t>车辆管理</t>
-  </si>
-  <si>
-    <t>车辆登记</t>
-  </si>
-  <si>
-    <t>车辆进出记录</t>
-  </si>
-  <si>
-    <t>车辆缴费管理</t>
-  </si>
-  <si>
-    <t>车辆缴费H5</t>
-  </si>
-  <si>
-    <t>线上物业</t>
-  </si>
-  <si>
-    <t>物业信息-UI</t>
-  </si>
-  <si>
-    <t>董志伟</t>
-  </si>
-  <si>
-    <t>物业服务-UI</t>
-  </si>
-  <si>
-    <t>物业信息-调试</t>
-  </si>
-  <si>
-    <t>物业服务-调试</t>
-  </si>
-  <si>
-    <t>缴费服务-调试</t>
-  </si>
-  <si>
-    <t>物业助手</t>
-  </si>
-  <si>
-    <t>工单中心-UI</t>
-  </si>
-  <si>
-    <t>工单中心-调试</t>
-  </si>
-  <si>
-    <t>物业团队-UI</t>
-  </si>
-  <si>
-    <t>物业团队-调试</t>
-  </si>
-  <si>
-    <t>我的客户-UI</t>
-  </si>
-  <si>
-    <t>我的客户-调试</t>
-  </si>
-  <si>
-    <t>智能小区</t>
-  </si>
-  <si>
-    <t>门禁管理-UI</t>
-  </si>
-  <si>
-    <t>门禁管理-调试1</t>
-  </si>
-  <si>
-    <t>门禁管理-调试2</t>
-  </si>
-  <si>
-    <t>我的访客-UI</t>
-  </si>
-  <si>
-    <t>我的访客-调试</t>
-  </si>
-  <si>
-    <t>对讲管理-UI</t>
-  </si>
-  <si>
-    <t>对讲管理-调试</t>
-  </si>
-  <si>
-    <t>安防监控-UI</t>
-  </si>
-  <si>
-    <t>安防监控-调试</t>
-  </si>
-  <si>
-    <t>警情监督-UI</t>
-  </si>
-  <si>
-    <t>警情监督-调试</t>
-  </si>
-  <si>
-    <t>车位管理-UI</t>
-  </si>
-  <si>
-    <t>车位管理-调试</t>
-  </si>
-  <si>
-    <t>我家的车-UI</t>
-  </si>
-  <si>
-    <t>我家的车-调试</t>
-  </si>
-  <si>
-    <t>电梯联动-UI</t>
-  </si>
-  <si>
-    <t>电梯联动-调试</t>
-  </si>
-  <si>
-    <t>陈嘉伟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m/d;@"/>
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -284,173 +281,26 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="STFangsong"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="STFangsong"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="STFangsong"/>
-      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,194 +319,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -679,251 +343,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -938,65 +360,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1014,7 +389,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1258,30 +633,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.3333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.8333333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.33333333333333" style="2" customWidth="1"/>
-    <col min="5" max="7" width="11.3333333333333" style="2" customWidth="1"/>
-    <col min="8" max="8" width="34.6666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.375" style="2" customWidth="1"/>
+    <col min="5" max="7" width="11.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="34.625" style="2" customWidth="1"/>
     <col min="9" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1712,8 +1087,8 @@
       <c r="A22" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>38</v>
+      <c r="B22" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>31</v>
@@ -1733,7 +1108,7 @@
         <v>37</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>31</v>
@@ -1750,10 +1125,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>31</v>
@@ -1770,10 +1145,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>31</v>
@@ -1790,10 +1165,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>31</v>
@@ -1810,10 +1185,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>31</v>
@@ -1829,33 +1204,32 @@
       <c r="H27" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.3333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.8333333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.33333333333333" style="2" customWidth="1"/>
-    <col min="5" max="7" width="11.3333333333333" style="2" customWidth="1"/>
-    <col min="8" max="8" width="34.6666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.375" style="2" customWidth="1"/>
+    <col min="5" max="7" width="11.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="34.625" style="2" customWidth="1"/>
     <col min="9" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1883,13 +1257,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="8"/>
@@ -1899,13 +1273,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="8"/>
@@ -1915,13 +1289,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
@@ -1931,13 +1305,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
@@ -1947,13 +1321,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
@@ -1963,13 +1337,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
@@ -1979,13 +1353,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
@@ -1995,13 +1369,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
@@ -2011,13 +1385,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
@@ -2027,13 +1401,13 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
@@ -2043,13 +1417,13 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
@@ -2059,13 +1433,13 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="C13" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6"/>
@@ -2075,13 +1449,13 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
@@ -2091,13 +1465,13 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
@@ -2107,13 +1481,13 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
@@ -2123,13 +1497,13 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
@@ -2139,13 +1513,13 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
@@ -2155,13 +1529,13 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
@@ -2171,13 +1545,13 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
@@ -2187,13 +1561,13 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
@@ -2203,13 +1577,13 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
@@ -2219,13 +1593,13 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="6"/>
@@ -2235,13 +1609,13 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
@@ -2251,13 +1625,13 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
@@ -2267,13 +1641,13 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
@@ -2283,13 +1657,13 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
@@ -2299,13 +1673,13 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
@@ -2315,13 +1689,13 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="6"/>
@@ -2330,33 +1704,32 @@
       <c r="H29" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.3333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.8333333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.33333333333333" style="2" customWidth="1"/>
-    <col min="5" max="7" width="11.3333333333333" style="2" customWidth="1"/>
-    <col min="8" max="8" width="34.6666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.375" style="2" customWidth="1"/>
+    <col min="5" max="7" width="11.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="34.625" style="2" customWidth="1"/>
     <col min="9" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2384,13 +1757,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
@@ -2400,13 +1773,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -2416,13 +1789,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
@@ -2432,13 +1805,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
@@ -2448,13 +1821,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
@@ -2464,13 +1837,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
@@ -2480,13 +1853,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
@@ -2496,13 +1869,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
@@ -2512,13 +1885,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
@@ -2528,13 +1901,13 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
@@ -2544,13 +1917,13 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
@@ -2560,13 +1933,13 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6"/>
@@ -2576,13 +1949,13 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
@@ -2592,13 +1965,13 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
@@ -2608,13 +1981,13 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
@@ -2624,13 +1997,13 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
@@ -2640,13 +2013,13 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
@@ -2656,13 +2029,13 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="C19" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="8"/>
@@ -2672,13 +2045,13 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="8"/>
@@ -2688,13 +2061,13 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
@@ -2704,13 +2077,13 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
@@ -2720,13 +2093,13 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="6"/>
@@ -2736,13 +2109,13 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="C24" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
@@ -2752,13 +2125,13 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
@@ -2768,13 +2141,13 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
@@ -2784,13 +2157,13 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
@@ -2800,13 +2173,13 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
@@ -2816,13 +2189,13 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="6"/>
@@ -2831,8 +2204,8 @@
       <c r="H29" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>